--- a/Test.xlsx
+++ b/Test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,6 +616,890 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>534.4424933651086</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>156.0332748009533</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.865572223878106</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(-38.528213590051415, 2.775260510305156, 7)</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2918565507147174</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(29.674482292506646, 2.502316817812679, 7)</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>706.5964941899516</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>191.1978948256985</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.920028227717877</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(26.8540786795967, -6.982431154186334, 10)</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>125.0495000702192</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43.75148500210658</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.514407666790749</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(1.9639028767533548, 31.060382984416453, 8)</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>159.5893321485603</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>54.78767996445681</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.713428589860037</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(11.112955378864909, -18.226510013987415, 2)</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>159.5893321485603</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>54.78767996445681</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.435081994453742</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(-9.024456473094038, -14.305251567444872, 10)</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>706.5964941899516</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.1978948256985</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.482802156975146</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(-37.36973740654332, 22.705581658613834, 8)</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>534.4424933651086</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>156.0332748009533</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.272498170070008</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(-48.60036503049249, -5.622171801000769, 2)</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>534.4424933651086</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>156.0332748009533</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.686666303069587</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(-42.09434424624006, -16.051524041815146, 9)</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4684155090095167</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(44.90979299009832, 17.781032198865184, 8)</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>194.1291642269013</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>65.82387492680704</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.441315677135337</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(-9.955358895404437, -37.898440838955864, 5)</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>706.5964941899516</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" t="n">
+        <v>191.1978948256985</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.090837600476006</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(-27.17169644023803, -35.24411219627738, 2)</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>534.4424933651086</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>156.0332748009533</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.329919793846162</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(-23.478052062371386, 24.63740866404301, 8)</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>706.5964941899516</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>191.1978948256985</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.40600051317721</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(-36.74345695610597, 29.051818888806157, 5)</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2540517357044021</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(35.08045567104374, 1.4213666528716729, 3)</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>477.0578264234942</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13</v>
+      </c>
+      <c r="D21" t="n">
+        <v>144.3117347927048</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.9751568815228</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(-10.204460326132592, 42.553125801167646, 7)</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>159.5893321485603</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>54.78767996445681</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.391921613078466</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(-10.033332308633158, -11.911876822821432, 7)</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.532142589544828</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(23.275833651658086, -10.288781904345232, 5)</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>125.0495000702192</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>43.75148500210658</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.17225425275237</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(17.665375605745062, 25.35071184265624, 10)</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>159.5893321485603</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>54.78767996445681</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.709857350943272</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(-4.578700536889308, 0.02628303265200928, 9)</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>125.0495000702192</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>43.75148500210658</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.034563237208851</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(13.91621972143799, 21.255723651628344, 1)</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>534.4424933651086</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14</v>
+      </c>
+      <c r="D27" t="n">
+        <v>156.0332748009533</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.121298684444193</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(-25.1557816246914, 14.048129778836365, 8)</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>706.5964941899516</v>
+      </c>
+      <c r="C28" t="n">
+        <v>17</v>
+      </c>
+      <c r="D28" t="n">
+        <v>191.1978948256985</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.284752174925135</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(-32.45388709666817, 37.097191311334235, 7)</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>159.5893321485603</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>54.78767996445681</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.890474175489755</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(-4.565223511588713, 1.7859247894965604, 1)</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>125.0495000702192</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43.75148500210658</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.582621722788091</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(-1.4290431528373357, 9.332802380219908, 1)</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>706.5964941899516</v>
+      </c>
+      <c r="C31" t="n">
+        <v>17</v>
+      </c>
+      <c r="D31" t="n">
+        <v>191.1978948256985</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.335960372971747</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(-22.406921518799017, -5.446249124612879, 7)</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
